--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -145,6 +142,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -187,7 +187,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs REST (Random Unsigned Numbers)</a:t>
+              <a:t> vs REST (Random Unsigned Number Transmission)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -294,11 +294,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144287048"/>
-        <c:axId val="2141312664"/>
+        <c:axId val="2087114024"/>
+        <c:axId val="2087107176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144287048"/>
+        <c:axId val="2087114024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -315,8 +315,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Nth Byte</a:t>
+                  <a:t>Maximum</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size of Number 2^n</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -326,7 +331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141312664"/>
+        <c:crossAx val="2087107176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -334,7 +339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141312664"/>
+        <c:axId val="2087107176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,20 +361,27 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Number of Byte Sent (Byte)</a:t>
+                  <a:t> Number of Bytes on Wire </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0132325141776938"/>
+              <c:y val="0.183333333333333"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144287048"/>
+        <c:crossAx val="2087114024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -420,7 +432,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs REST (UTF-8 Encoding)</a:t>
+              <a:t> vs REST (UTF-8 Transmission)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -442,6 +454,11 @@
           <c:tx>
             <c:v>gRPC</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -503,11 +520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2082440856"/>
-        <c:axId val="-2114671640"/>
+        <c:axId val="2087035384"/>
+        <c:axId val="2087029896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082440856"/>
+        <c:axId val="2087035384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,8 +541,21 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Nth Byte</a:t>
+                  <a:t>Number</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Unicode</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Blocks Sent</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -535,7 +565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114671640"/>
+        <c:crossAx val="2087029896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -543,8 +573,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114671640"/>
+        <c:axId val="2087029896"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -561,24 +592,31 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Total Number of Bytes Sent</a:t>
+                  <a:t>Total Number of Bytes on</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (Bytes)</a:t>
+                  <a:t> Wire</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.011605415860735"/>
+              <c:y val="0.191705069124424"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082440856"/>
+        <c:crossAx val="2087035384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -592,219 +630,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>gRPC vs REST (UTF-8 Encoding)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>gRPC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="3175" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$3:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>505.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4217.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>190000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.043E6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>REST</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="3175" cmpd="sng"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$3:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>460.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4173.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>190000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.444E6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2107541544"/>
-        <c:axId val="-2107536120"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2107541544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107536120"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2107536120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Total</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Number of Bytes Sent (Byte)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107541544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:ln w="3175" cmpd="sng"/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln w="3175" cmpd="sng"/>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -848,15 +673,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -870,38 +695,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1235,7 +1028,7 @@
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1246,154 +1039,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="2:7" ht="18">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="18">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1874</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>12000</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>505</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>460</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="18">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3125</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>14000</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>4217</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>4173</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>4262</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>17000</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>190000</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>190000</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="18">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>5258</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>19000</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>2043000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>3444000</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="18">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>6357</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>22000</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:7" ht="18">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>7372</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>24000</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" ht="18">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>8384</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>27000</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" ht="18">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>9384</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>29000</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
